--- a/data/trans_bre/P3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,02</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,56</t>
+          <t>-10,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,45</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,07%</t>
+          <t>-18,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-23,9%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>-18,02%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-12,46%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 9,75</t>
+          <t>-31,8; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 5,21</t>
+          <t>-32,2; 24,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 3,94</t>
+          <t>-32,94; 23,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 6,75</t>
+          <t>-31,63; 30,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 20,27</t>
+          <t>-23,13; 38,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 9,73</t>
+          <t>-44,2; 48,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 7,17</t>
+          <t>-43,92; 68,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 10,6</t>
+          <t>-45,07; 64,75</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-43,15; 92,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-37,94; 176,45</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,66%</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>-12,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-16,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-22,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 6,09</t>
+          <t>-17,44; 6,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 8,22</t>
+          <t>-18,15; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 6,44</t>
+          <t>-20,65; 2,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 8,19</t>
+          <t>-21,06; 2,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 13,37</t>
+          <t>-25,34; -1,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 18,0</t>
+          <t>-29,11; 13,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 13,72</t>
+          <t>-30,48; 13,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 18,52</t>
+          <t>-33,14; 5,1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-33,69; 5,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,5; -2,97</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,27</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,58%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,76%</t>
+          <t>-11,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,23%</t>
+          <t>-17,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-25,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-7,98%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 0,72</t>
+          <t>-16,08; 8,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 1,93</t>
+          <t>-17,3; 7,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 0,33</t>
+          <t>-19,84; 4,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,21; -1,9</t>
+          <t>-24,1; 0,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 2,3</t>
+          <t>-16,59; 7,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 4,06</t>
+          <t>-31,37; 23,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 1,05</t>
+          <t>-33,54; 20,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -4,07</t>
+          <t>-38,33; 10,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-44,29; 0,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-33,65; 21,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -0,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -1,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,05</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-6,94</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-9,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-10,31</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-6,96</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-13,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-17,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-19,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-13,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 1,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 1,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; -0,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-19,07; -1,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-15,71; 3,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,96; 4,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-28,21; 3,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-31,68; -2,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-32,9; -2,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 9,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-10,54</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,28</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-18,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-16,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-18,02%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-12,46%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>13,15%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.53895125942468</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-13.56495420975827</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.47846784701226</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.986124405129745</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.409024290328581</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1857736036864897</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.220651907221589</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2074932778789258</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1242065555867749</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.186809216823978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-31,8; 19,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-32,2; 24,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-32,94; 23,39</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-31,63; 30,23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-23,13; 38,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-44,2; 48,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-43,92; 68,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-45,07; 64,75</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-43,15; 92,79</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-37,94; 176,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.79998860115557</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-35.46259717506247</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-35.261726926987</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-30.7728186507968</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-19.78034198971948</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4419740677388466</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4606439061083824</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4616641016026573</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4155194338531871</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3363060273656382</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.40174045582401</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.76634122451419</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.82990800739582</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>29.79728401799967</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>41.81320472316158</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4877888830713806</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4127311216471901</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4407003017391308</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8870962221549678</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.14295895204556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,91</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,87</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-8,94</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,26</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-12,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-16,14%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-16,02%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-22,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,44; 6,98</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; 6,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,65; 2,18</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,06; 2,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-25,34; -1,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-29,11; 13,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-30,48; 13,33</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-33,14; 5,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-33,69; 5,48</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-38,5; -2,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.600330175549856</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.895572921946552</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-10.21742009155271</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.303168953357771</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-13.48383145772404</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.103253220404629</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1265909809841423</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1816183110854316</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1655696077547967</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2236391526183567</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,51%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-11,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-17,56%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-25,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-7,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.44437102516438</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.48705410764283</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-21.9090930132959</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.4244246858845</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-25.64872126863787</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2910879830655893</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3103652693268261</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3504022138349048</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3408083258018375</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3861171359553902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,08; 8,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; 7,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; 4,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,1; 0,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,59; 7,62</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-31,37; 23,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-33,54; 20,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-38,33; 10,39</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-44,29; 0,8</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-33,65; 21,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.982203054649255</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.114171333950494</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6198382426196258</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.788544177281531</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-1.849288043651988</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1399256270190795</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1319705004547862</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.0141594701626084</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.04528762452868118</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.03695425668594541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.17262541840191</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.41286037435597</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.645938501509548</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-11.92637667439813</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-2.585003973104105</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.09514383255358666</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09730088583998017</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1842482374573473</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2461945144986278</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.06227048155698083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.08436315929107</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.49467670705683</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.72114228314349</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-24.04504857280823</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.29562530971452</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3137031205824697</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3300872700672514</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3929841717338614</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.436998232100845</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3189095508815016</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.24672134301702</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.217984720729557</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.003265032543913</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2587430201071035</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>8.674368522504066</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2346713434708881</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2570292189737458</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1011216837351354</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.01175442284546952</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2450858056758589</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,94</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,31</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-6,96</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-11,95%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-13,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-17,54%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-19,55%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-13,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,38; 1,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; 1,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,97; -0,84</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,07; -1,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-15,71; 3,93</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-25,96; 4,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 3,26</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-31,68; -2,03</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-32,9; -2,81</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-28,74; 9,14</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.052669685127937</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.011844660955669</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-10.17075984175124</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-10.26107860218398</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-6.560293505897241</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1195020193707688</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1350044390678256</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1906933671217927</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1917546895815769</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1296139650653767</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-14.37992621194158</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-15.94459562611299</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.62791637052988</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-19.07710798002638</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-15.4497261966655</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2595680167691937</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2812121371440251</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3266341622152666</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3276594148801746</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2793565737606128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.908697700194275</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.206716021492961</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.307079884071178</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-1.37226575584838</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.947439079164249</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.04143648513869408</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.0416473665643913</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.05061908195526933</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.0359468269383755</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.08765079656768206</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
